--- a/tutorial resources/novo_repo_notes.xlsx
+++ b/tutorial resources/novo_repo_notes.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1531149-7969-47F1-8E57-F0ABF8A89C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7450A56F-87FF-47CE-A817-835BC620DD73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="124">
   <si>
     <t>comments</t>
   </si>
@@ -250,9 +250,6 @@
     <t>[sourcerer_portable]</t>
   </si>
   <si>
-    <t>F:\sourcerer_portable</t>
-  </si>
-  <si>
     <t>[novo_repo]</t>
   </si>
   <si>
@@ -280,48 +277,15 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Desktop UNIFESP</t>
-  </si>
-  <si>
     <t>CPU</t>
   </si>
   <si>
-    <t>Intel(R) Core(TM) i5-2310</t>
-  </si>
-  <si>
-    <t>2.90GHz</t>
-  </si>
-  <si>
-    <t>8,00 GB</t>
-  </si>
-  <si>
-    <t>3,63 TB (externo)</t>
-  </si>
-  <si>
-    <t>223 GB (SSD)</t>
-  </si>
-  <si>
-    <t>AMD Radeon HD 6450</t>
-  </si>
-  <si>
-    <t>Windows 10 Pro</t>
-  </si>
-  <si>
     <t>eclipse-java-mars-2-win32-x86_64</t>
   </si>
   <si>
-    <t>jdk1.8.0_241</t>
-  </si>
-  <si>
     <t>5.6.22-winx64</t>
   </si>
   <si>
-    <t>DELL XPS</t>
-  </si>
-  <si>
-    <t>Inventário UNIFESP: 176027</t>
-  </si>
-  <si>
     <t>console-logs</t>
   </si>
   <si>
@@ -385,9 +349,6 @@
     <t>Instalar ferramentas</t>
   </si>
   <si>
-    <t>genie_search_api_test</t>
-  </si>
-  <si>
     <t xml:space="preserve"> -</t>
   </si>
   <si>
@@ -440,6 +401,9 @@
   </si>
   <si>
     <t>solr-repo-folders</t>
+  </si>
+  <si>
+    <t>R:\sourcerer_portable</t>
   </si>
 </sst>
 </file>
@@ -527,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +528,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -589,7 +559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -737,6 +707,12 @@
     </xf>
     <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -744,20 +720,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="50">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1739,6 +1701,20 @@
       </fill>
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1753,60 +1729,60 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41AEE508-D156-475C-BEDA-CC1E9ED26C70}" name="Etapas" displayName="Etapas" ref="B3:F11" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{41AEE508-D156-475C-BEDA-CC1E9ED26C70}" name="Etapas" displayName="Etapas" ref="B3:F11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="B3:F11" xr:uid="{8CBC944F-BB65-46C2-933C-DC151DC80CE6}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{6F002AA5-C76D-47D9-8A88-D583F2F8C5AE}" name="Data" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{BCE89FC6-624B-45A3-9C55-FEB5E14F2483}" name="Etapa" dataDxfId="46"/>
-    <tableColumn id="3" xr3:uid="{92AA3E84-F8B9-4032-BBC3-948B2C398FB7}" name="Descrição" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{3EC76C19-9BEB-45F9-BBF4-70A2A20356B8}" name="Total" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{1B3054EA-197B-4B13-9156-DB377B7E85F2}" name="Medida" dataDxfId="43"/>
+    <tableColumn id="5" xr3:uid="{6F002AA5-C76D-47D9-8A88-D583F2F8C5AE}" name="Data" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{BCE89FC6-624B-45A3-9C55-FEB5E14F2483}" name="Etapa" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{92AA3E84-F8B9-4032-BBC3-948B2C398FB7}" name="Descrição" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{3EC76C19-9BEB-45F9-BBF4-70A2A20356B8}" name="Total" dataDxfId="42"/>
+    <tableColumn id="4" xr3:uid="{1B3054EA-197B-4B13-9156-DB377B7E85F2}" name="Medida" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{83741A93-4D19-4357-B853-C9D604EF7695}" name="Paths" displayName="Paths" ref="B13:D16" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{83741A93-4D19-4357-B853-C9D604EF7695}" name="Paths" displayName="Paths" ref="B13:D16" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
   <autoFilter ref="B13:D16" xr:uid="{7377DE33-A2BA-47CC-AF73-783FF59F6DFD}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A1561D48-CF3C-4E58-A1BA-A85812B7B868}" name="Root" dataDxfId="40"/>
-    <tableColumn id="3" xr3:uid="{940EF99B-2B81-4504-A187-04E0BE419A7A}" name="Link" dataDxfId="39" dataCellStyle="Hiperlink">
+    <tableColumn id="1" xr3:uid="{A1561D48-CF3C-4E58-A1BA-A85812B7B868}" name="Root" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{940EF99B-2B81-4504-A187-04E0BE419A7A}" name="Link" dataDxfId="37" dataCellStyle="Hiperlink">
       <calculatedColumnFormula>HYPERLINK(Paths[[#This Row],[Path]],"abrir")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{7E732C7B-C6D0-4761-B9E3-411820DEBDDE}" name="Path" dataDxfId="38"/>
+    <tableColumn id="2" xr3:uid="{7E732C7B-C6D0-4761-B9E3-411820DEBDDE}" name="Path" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D0D3CB10-F8F0-41FA-89A4-C957116A0DA3}" name="Tabela10" displayName="Tabela10" ref="F13:G26" totalsRowShown="0" headerRowDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{D0D3CB10-F8F0-41FA-89A4-C957116A0DA3}" name="Tabela10" displayName="Tabela10" ref="F13:G26" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="F13:G26" xr:uid="{5A0D3712-7441-4404-B578-291703450EB9}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{69604D30-03BF-4541-826C-20A5ADB6A146}" name="Machine config" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{696E466A-0872-48AE-BA13-9BD777602C9E}" name="Description" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{69604D30-03BF-4541-826C-20A5ADB6A146}" name="Machine config" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{696E466A-0872-48AE-BA13-9BD777602C9E}" name="Description" dataDxfId="33"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C8CD3C98-D9CB-40CD-8347-2A5755B9E908}" name="Folders" displayName="Folders" ref="J3:S10" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C8CD3C98-D9CB-40CD-8347-2A5755B9E908}" name="Folders" displayName="Folders" ref="J3:S10" totalsRowShown="0" headerRowDxfId="32" dataDxfId="31">
   <autoFilter ref="J3:S10" xr:uid="{B494973C-E534-49F1-9932-EB9856FC23D8}"/>
   <tableColumns count="10">
-    <tableColumn id="10" xr3:uid="{ACA81AFA-CD83-417F-AC64-DABD0B4F6B57}" name="Et" dataDxfId="32"/>
-    <tableColumn id="1" xr3:uid="{8288516A-5EF5-48EA-AB3B-A3C2C695ADD6}" name="Folder" dataDxfId="31"/>
-    <tableColumn id="9" xr3:uid="{FB193607-52A2-4708-AC66-48D16668E398}" name="Link" dataDxfId="30">
+    <tableColumn id="10" xr3:uid="{ACA81AFA-CD83-417F-AC64-DABD0B4F6B57}" name="Et" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{8288516A-5EF5-48EA-AB3B-A3C2C695ADD6}" name="Folder" dataDxfId="29"/>
+    <tableColumn id="9" xr3:uid="{FB193607-52A2-4708-AC66-48D16668E398}" name="Link" dataDxfId="28">
       <calculatedColumnFormula>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8CEC1B3C-0F74-40D8-A085-6F45200A84CE}" name="Projects" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{92A185D8-334C-454C-B71A-D632D6DD08B5}" name="Libraries" dataDxfId="28"/>
-    <tableColumn id="4" xr3:uid="{5042A8F9-19CE-4159-9D42-19C0F6FA5004}" name="Jars" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{85F6C5C4-8AAE-4FC6-9E80-6D4BBCB4BD53}" name="Files" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{ECEC6C69-8391-403E-953B-1DF21FD688EE}" name="Folders" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{98ED459C-C98C-42C9-B5C5-9FBC1FF72DEF}" name="Bytes" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{C014929A-05AD-4CFE-B3AC-88EA02C8D91D}" name="GB" dataDxfId="23">
+    <tableColumn id="2" xr3:uid="{8CEC1B3C-0F74-40D8-A085-6F45200A84CE}" name="Projects" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{92A185D8-334C-454C-B71A-D632D6DD08B5}" name="Libraries" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{5042A8F9-19CE-4159-9D42-19C0F6FA5004}" name="Jars" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{85F6C5C4-8AAE-4FC6-9E80-6D4BBCB4BD53}" name="Files" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{ECEC6C69-8391-403E-953B-1DF21FD688EE}" name="Folders" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{98ED459C-C98C-42C9-B5C5-9FBC1FF72DEF}" name="Bytes" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{C014929A-05AD-4CFE-B3AC-88EA02C8D91D}" name="GB" dataDxfId="21">
       <calculatedColumnFormula>Folders[[#This Row],[Bytes]]/1024/1024/1024</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1815,44 +1791,44 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{84C1560C-F104-4D95-9CCE-D4251919F075}" name="Sourcerer" displayName="Sourcerer" ref="J12:R26" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{84C1560C-F104-4D95-9CCE-D4251919F075}" name="Sourcerer" displayName="Sourcerer" ref="J12:R26" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="J12:R26" xr:uid="{7697C1AB-842E-4FB5-AA85-7DE887C02AB7}"/>
   <tableColumns count="9">
-    <tableColumn id="10" xr3:uid="{5DDF20F8-AA32-415F-B6A4-E1A2E0461C23}" name="Et" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{2789E76C-8696-4BA1-922A-32096FDD0B59}" name="Infraestrutura Sourcerer" dataDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{72A590ED-7A24-4FFC-9A89-971133968D11}" name="Link" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{96D7B21B-F069-49D2-9BA7-5BD8B1E755E2}" name="Start" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{35D8484E-6CC1-492A-B83C-A7B6ABD0003D}" name="Finish" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{D36DC3D1-AD7A-47AC-9F9D-DAC5416E9927}" name="Duration" dataDxfId="15">
+    <tableColumn id="10" xr3:uid="{5DDF20F8-AA32-415F-B6A4-E1A2E0461C23}" name="Et" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{2789E76C-8696-4BA1-922A-32096FDD0B59}" name="Infraestrutura Sourcerer" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{72A590ED-7A24-4FFC-9A89-971133968D11}" name="Link" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{96D7B21B-F069-49D2-9BA7-5BD8B1E755E2}" name="Start" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{35D8484E-6CC1-492A-B83C-A7B6ABD0003D}" name="Finish" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{D36DC3D1-AD7A-47AC-9F9D-DAC5416E9927}" name="Duration" dataDxfId="13">
       <calculatedColumnFormula>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{ECA6C806-26AC-43C2-8F91-C07287A97602}" name="Found" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{8101E50B-4D71-4637-A044-32DFE0D3B3A2}" name="Processed" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{B131AFF9-AE9F-49B2-B872-4A055710623A}" name="VM args" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{ECA6C806-26AC-43C2-8F91-C07287A97602}" name="Found" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{8101E50B-4D71-4637-A044-32DFE0D3B3A2}" name="Processed" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{B131AFF9-AE9F-49B2-B872-4A055710623A}" name="VM args" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C174B333-A396-4F02-9108-F2669999ABF2}" name="Tabelas" displayName="Tabelas" ref="V3:X13" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{C174B333-A396-4F02-9108-F2669999ABF2}" name="Tabelas" displayName="Tabelas" ref="V3:X13" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="V3:X13" xr:uid="{7530AC76-6C33-411B-B2FF-52930E15ED4A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{BD97CC32-E76D-417F-8724-2F4666AF369F}" name="Tabelas Sourcerer" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{DC3C74FF-57F8-48CE-8617-8707BC2EC0F4}" name="Records" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{9B144297-33B3-4576-B72A-BDD2A3CA509D}" name="Tipo" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{BD97CC32-E76D-417F-8724-2F4666AF369F}" name="Tabelas Sourcerer" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{DC3C74FF-57F8-48CE-8617-8707BC2EC0F4}" name="Records" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{9B144297-33B3-4576-B72A-BDD2A3CA509D}" name="Tipo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C8EB167C-A041-48BC-8001-C467D78AF12A}" name="Tabelas_2" displayName="Tabelas_2" ref="Z3:AB21" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{C8EB167C-A041-48BC-8001-C467D78AF12A}" name="Tabelas_2" displayName="Tabelas_2" ref="Z3:AB21" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="Z3:AB21" xr:uid="{6EC89F9B-AC80-4DE4-B52A-851FD4888A7A}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{B7D3B83B-6E66-43FA-BBF2-F2D3CF954A23}" name="Tabelas interface-metrics" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{F0A5F6EF-22E1-4270-9A3B-A2A2FB411911}" name="Records" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{B1A45624-0A1B-431B-AC31-92BF969C7ABD}" name="Tipo" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B7D3B83B-6E66-43FA-BBF2-F2D3CF954A23}" name="Tabelas interface-metrics" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F0A5F6EF-22E1-4270-9A3B-A2A2FB411911}" name="Records" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{B1A45624-0A1B-431B-AC31-92BF969C7ABD}" name="Tipo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2124,7 +2100,7 @@
   <dimension ref="B1:AD52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2163,15 +2139,15 @@
     <row r="1" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="15" t="str">
         <f>D15 &amp; " - " &amp; B11</f>
-        <v>genie_search_api_test - 43977</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="K1" s="15" t="str">
         <f>B1</f>
-        <v>genie_search_api_test - 43977</v>
+        <v xml:space="preserve"> - </v>
       </c>
       <c r="V1" s="15" t="str">
         <f>B1</f>
-        <v>genie_search_api_test - 43977</v>
+        <v xml:space="preserve"> - </v>
       </c>
     </row>
     <row r="2" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2181,7 +2157,7 @@
     </row>
     <row r="3" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>53</v>
@@ -2190,13 +2166,13 @@
         <v>54</v>
       </c>
       <c r="E3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>76</v>
-      </c>
       <c r="J3" s="21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K3" s="18" t="s">
         <v>17</v>
@@ -2223,11 +2199,11 @@
         <v>21</v>
       </c>
       <c r="S3" s="34" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="T3" s="36"/>
       <c r="V3" s="16" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="W3" s="16" t="s">
         <v>49</v>
@@ -2236,7 +2212,7 @@
         <v>51</v>
       </c>
       <c r="Z3" s="16" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="AA3" s="16" t="s">
         <v>49</v>
@@ -2246,20 +2222,18 @@
       </c>
     </row>
     <row r="4" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
-        <v>43969</v>
-      </c>
+      <c r="B4" s="19"/>
       <c r="C4" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J4" s="22" t="s">
         <v>61</v>
@@ -2271,52 +2245,34 @@
         <f>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</f>
         <v>abrir</v>
       </c>
-      <c r="M4" s="32">
-        <v>6</v>
-      </c>
-      <c r="N4" s="32">
-        <v>18</v>
-      </c>
-      <c r="O4" s="32">
-        <v>57</v>
-      </c>
-      <c r="P4" s="32">
-        <v>1826</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>299</v>
-      </c>
-      <c r="R4" s="35">
-        <v>293866466</v>
-      </c>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="35"/>
       <c r="S4" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>0.27368447370827198</v>
+        <v>0</v>
       </c>
       <c r="T4" s="36"/>
       <c r="V4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="W4" s="25">
-        <v>252504</v>
-      </c>
+      <c r="W4" s="25"/>
       <c r="X4" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z4" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="AA4" s="25">
-        <v>289161</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="AA4" s="25"/>
       <c r="AB4" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
-        <v>43969</v>
-      </c>
+      <c r="B5" s="19"/>
       <c r="C5" s="12" t="s">
         <v>57</v>
       </c>
@@ -2324,10 +2280,10 @@
         <v>58</v>
       </c>
       <c r="E5" s="39" t="s">
-        <v>119</v>
+        <v>106</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J5" s="22" t="s">
         <v>61</v>
@@ -2339,63 +2295,46 @@
         <f>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</f>
         <v>abrir</v>
       </c>
-      <c r="M5" s="32">
-        <v>6</v>
-      </c>
-      <c r="N5" s="32">
-        <v>18</v>
-      </c>
-      <c r="O5" s="32">
-        <v>57</v>
-      </c>
-      <c r="P5" s="32">
-        <v>740</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>86</v>
-      </c>
-      <c r="R5" s="35">
-        <v>1341857449</v>
-      </c>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="35"/>
       <c r="S5" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>1.2497021341696382</v>
+        <v>0</v>
       </c>
       <c r="T5" s="36"/>
       <c r="V5" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="W5" s="25">
-        <v>1093930</v>
-      </c>
+      <c r="W5" s="25"/>
       <c r="X5" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA5" s="25">
-        <v>7</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="AA5" s="25"/>
       <c r="AB5" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
-        <v>43972</v>
-      </c>
+      <c r="B6" s="19"/>
       <c r="C6" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="39">
-        <v>6</v>
+      <c r="E6" s="51">
+        <f>M4</f>
+        <v>0</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J6" s="22" t="s">
         <v>61</v>
@@ -2408,51 +2347,41 @@
         <v>abrir</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N6" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O6" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="32">
-        <v>20</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>13</v>
-      </c>
-      <c r="R6" s="35">
-        <v>1193451</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="35"/>
       <c r="S6" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>1.1114878579974174E-3</v>
+        <v>0</v>
       </c>
       <c r="T6" s="36"/>
       <c r="V6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="W6" s="25">
-        <v>2444000</v>
-      </c>
+      <c r="W6" s="25"/>
       <c r="X6" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z6" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA6" s="25">
-        <v>0</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="AA6" s="25"/>
       <c r="AB6" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="B7" s="50" t="str">
         <f>IF(N23="","",N23)</f>
-        <v>43972.55972222222</v>
+        <v/>
       </c>
       <c r="C7" s="12" t="s">
         <v>61</v>
@@ -2461,67 +2390,57 @@
         <v>60</v>
       </c>
       <c r="E7" s="39" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="J7" s="22" t="s">
         <v>61</v>
       </c>
       <c r="K7" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L7" s="37" t="str">
         <f>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</f>
         <v>abrir</v>
       </c>
       <c r="M7" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N7" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O7" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="32">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>0</v>
-      </c>
-      <c r="R7" s="35">
-        <v>78522</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="35"/>
       <c r="S7" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>7.3129311203956604E-5</v>
+        <v>0</v>
       </c>
       <c r="T7" s="36"/>
       <c r="V7" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="W7" s="25">
-        <v>80336</v>
-      </c>
+      <c r="W7" s="25"/>
       <c r="X7" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA7" s="25">
-        <v>1352162</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="AA7" s="25"/>
       <c r="AB7" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="50" t="str">
         <f>IF(N24="","",N24)</f>
-        <v>43972.626388888886</v>
+        <v/>
       </c>
       <c r="C8" s="12" t="s">
         <v>63</v>
@@ -2529,68 +2448,56 @@
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="39">
-        <v>335032</v>
-      </c>
+      <c r="E8" s="39"/>
       <c r="F8" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J8" s="22" t="s">
         <v>63</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="L8" s="37" t="str">
         <f>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</f>
         <v>abrir</v>
       </c>
       <c r="M8" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N8" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O8" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P8" s="32">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="32">
-        <v>3</v>
-      </c>
-      <c r="R8" s="35">
-        <v>111718580</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="35"/>
       <c r="S8" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>0.10404603555798531</v>
+        <v>0</v>
       </c>
       <c r="T8" s="36"/>
       <c r="V8" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="W8" s="25">
-        <v>26305</v>
-      </c>
+      <c r="W8" s="25"/>
       <c r="X8" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA8" s="25">
-        <v>0</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="AA8" s="25"/>
       <c r="AB8" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="50" t="str">
         <f>IF(N25="","",N25)</f>
-        <v>43976.93472222222</v>
+        <v/>
       </c>
       <c r="C9" s="12" t="s">
         <v>65</v>
@@ -2600,170 +2507,148 @@
       </c>
       <c r="E9" s="39">
         <f>AA4</f>
-        <v>289161</v>
+        <v>0</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J9" s="22" t="s">
         <v>65</v>
       </c>
       <c r="K9" s="2" t="str">
         <f>"mysql/data/" &amp; D15</f>
-        <v>mysql/data/genie_search_api_test</v>
+        <v>mysql/data/</v>
       </c>
       <c r="L9" s="37" t="str">
         <f>IF(Folders[[#This Row],[Folder]]&lt;&gt;("mysql/data/"&amp;$D$15),HYPERLINK($D$16&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"),HYPERLINK($D$14&amp;"\"&amp;Folders[[#This Row],[Folder]],"abrir"))</f>
         <v>abrir</v>
       </c>
       <c r="M9" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N9" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O9" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P9" s="32">
-        <v>63</v>
-      </c>
-      <c r="Q9" s="32">
-        <v>0</v>
-      </c>
-      <c r="R9" s="35">
-        <v>2371912458</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="35"/>
       <c r="S9" s="36">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>2.2090156171470881</v>
+        <v>0</v>
       </c>
       <c r="T9" s="36"/>
       <c r="V9" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="W9" s="25">
-        <v>55999</v>
-      </c>
+      <c r="W9" s="25"/>
       <c r="X9" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AA9" s="25">
-        <v>0</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AA9" s="25"/>
       <c r="AB9" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="10" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
-        <v>43977</v>
-      </c>
+      <c r="B10" s="19"/>
       <c r="C10" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E10" s="33">
         <f>SUM(S4:S8)</f>
-        <v>1.6286172606050968</v>
+        <v>0</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="J10" s="22"/>
       <c r="K10" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L10" s="40"/>
       <c r="M10" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="N10" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="O10" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="P10" s="47">
         <f>SUBTOTAL(109,P4:P9)</f>
-        <v>2732</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="47">
         <f>SUBTOTAL(109,Q4:Q9)</f>
-        <v>401</v>
+        <v>0</v>
       </c>
       <c r="R10" s="48">
         <f>SUBTOTAL(109,R4:R9)</f>
-        <v>4120626926</v>
+        <v>0</v>
       </c>
       <c r="S10" s="49">
         <f>Folders[[#This Row],[Bytes]]/1024/1024/1024</f>
-        <v>3.8376328777521849</v>
+        <v>0</v>
       </c>
       <c r="V10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="W10" s="25">
-        <v>24278</v>
-      </c>
+      <c r="W10" s="25"/>
       <c r="X10" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z10" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA10" s="25">
-        <v>343059</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="AA10" s="25"/>
       <c r="AB10" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="19">
-        <v>43977</v>
-      </c>
+      <c r="B11" s="19"/>
       <c r="C11" s="12" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>67</v>
       </c>
       <c r="E11" s="33">
         <f>S9</f>
-        <v>2.2090156171470881</v>
+        <v>0</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="V11" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="W11" s="25">
-        <v>64</v>
-      </c>
+      <c r="W11" s="25"/>
       <c r="X11" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z11" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA11" s="25">
-        <v>14</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="AA11" s="25"/>
       <c r="AB11" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="7"/>
       <c r="J12" s="21" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="K12" s="18" t="s">
         <v>50</v>
@@ -2787,25 +2672,21 @@
         <v>36</v>
       </c>
       <c r="R12" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="V12" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="W12" s="25">
-        <v>83</v>
-      </c>
+      <c r="W12" s="25"/>
       <c r="X12" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z12" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA12" s="25">
-        <v>36</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AA12" s="25"/>
       <c r="AB12" s="23" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2822,7 +2703,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J13" s="22" t="s">
         <v>61</v>
@@ -2831,40 +2712,30 @@
         <v>24</v>
       </c>
       <c r="L13" s="2"/>
-      <c r="M13" s="3">
-        <v>43972.463888888888</v>
-      </c>
-      <c r="N13" s="3">
-        <v>43972.463888888888</v>
-      </c>
+      <c r="M13" s="3"/>
+      <c r="N13" s="3"/>
       <c r="O13" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
-      <c r="P13" s="32">
-        <v>6</v>
-      </c>
+      <c r="P13" s="32"/>
       <c r="Q13" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R13" s="2"/>
       <c r="V13" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="W13" s="25">
-        <v>5819181</v>
-      </c>
+      <c r="W13" s="25"/>
       <c r="X13" s="26" t="s">
         <v>52</v>
       </c>
       <c r="Z13" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="AA13" s="45">
-        <v>8156</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AA13" s="45"/>
       <c r="AB13" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -2876,14 +2747,12 @@
         <v>abrir</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>82</v>
-      </c>
+      <c r="G14" s="2"/>
       <c r="J14" s="22" t="s">
         <v>61</v>
       </c>
@@ -2891,50 +2760,39 @@
         <v>25</v>
       </c>
       <c r="L14" s="2"/>
-      <c r="M14" s="3">
-        <v>43972.474999999999</v>
-      </c>
-      <c r="N14" s="3">
-        <v>43972.474999999999</v>
-      </c>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
       <c r="O14" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
       <c r="P14" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q14" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R14" s="2"/>
       <c r="Z14" s="42" t="s">
-        <v>111</v>
-      </c>
-      <c r="AA14" s="45">
-        <v>1352162</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="AA14" s="45"/>
       <c r="AB14" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="20" t="str">
         <f>HYPERLINK(Paths[[#This Row],[Path]],"abrir")</f>
         <v>abrir</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="F15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>94</v>
-      </c>
+      <c r="G15" s="2"/>
       <c r="J15" s="22" t="s">
         <v>61</v>
       </c>
@@ -2942,39 +2800,31 @@
         <v>26</v>
       </c>
       <c r="L15" s="2"/>
-      <c r="M15" s="3">
-        <v>43972.474999999999</v>
-      </c>
-      <c r="N15" s="3">
-        <v>43972.475694444445</v>
-      </c>
+      <c r="M15" s="3"/>
+      <c r="N15" s="3"/>
       <c r="O15" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>6.944444467080757E-4</v>
-      </c>
-      <c r="P15" s="32">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P15" s="32"/>
       <c r="Q15" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Z15" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="AA15" s="45">
-        <v>36</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="AA15" s="45"/>
       <c r="AB15" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C16" s="10" t="str">
         <f>HYPERLINK(Paths[[#This Row],[Path]],"abrir")</f>
@@ -2982,14 +2832,12 @@
       </c>
       <c r="D16" s="27" t="str">
         <f>D14&amp;"\repositories\"&amp;D15</f>
-        <v>F:\sourcerer_portable\repositories\genie_search_api_test</v>
+        <v>R:\sourcerer_portable\repositories\</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>95</v>
-      </c>
+      <c r="G16" s="2"/>
       <c r="J16" s="22" t="s">
         <v>61</v>
       </c>
@@ -2997,34 +2845,26 @@
         <v>27</v>
       </c>
       <c r="L16" s="2"/>
-      <c r="M16" s="3">
-        <v>43972.477083333331</v>
-      </c>
-      <c r="N16" s="3">
-        <v>43972.477083333331</v>
-      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
       <c r="O16" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
-      <c r="P16" s="32">
-        <v>18</v>
-      </c>
+      <c r="P16" s="32"/>
       <c r="Q16" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Z16" s="42" t="s">
-        <v>113</v>
-      </c>
-      <c r="AA16" s="45">
-        <v>6</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="AA16" s="45"/>
       <c r="AB16" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3032,9 +2872,7 @@
       <c r="F17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>84</v>
-      </c>
+      <c r="G17" s="2"/>
       <c r="J17" s="22" t="s">
         <v>61</v>
       </c>
@@ -3042,44 +2880,34 @@
         <v>28</v>
       </c>
       <c r="L17" s="2"/>
-      <c r="M17" s="3">
-        <v>43972.478472222225</v>
-      </c>
-      <c r="N17" s="3">
-        <v>43972.482638888891</v>
-      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="3"/>
       <c r="O17" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>4.166666665696539E-3</v>
-      </c>
-      <c r="P17" s="32">
-        <v>18</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P17" s="32"/>
       <c r="Q17" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="2"/>
       <c r="Z17" s="42" t="s">
-        <v>114</v>
-      </c>
-      <c r="AA17" s="45">
-        <v>39</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="AA17" s="45"/>
       <c r="AB17" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="7"/>
       <c r="F18" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>85</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G18" s="2"/>
       <c r="J18" s="22" t="s">
         <v>61</v>
       </c>
@@ -3087,34 +2915,26 @@
         <v>29</v>
       </c>
       <c r="L18" s="2"/>
-      <c r="M18" s="3">
-        <v>43972.484027777777</v>
-      </c>
-      <c r="N18" s="3">
-        <v>43972.484722222223</v>
-      </c>
+      <c r="M18" s="3"/>
+      <c r="N18" s="3"/>
       <c r="O18" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>6.944444467080757E-4</v>
-      </c>
-      <c r="P18" s="32">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P18" s="32"/>
       <c r="Q18" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Z18" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA18" s="46">
-        <v>47</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="AA18" s="46"/>
       <c r="AB18" s="44" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="19" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
@@ -3122,9 +2942,7 @@
       <c r="F19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
+      <c r="G19" s="2"/>
       <c r="J19" s="22" t="s">
         <v>61</v>
       </c>
@@ -3132,43 +2950,33 @@
         <v>30</v>
       </c>
       <c r="L19" s="2"/>
-      <c r="M19" s="3">
-        <v>43972.48541666667</v>
-      </c>
-      <c r="N19" s="3">
-        <v>43972.48541666667</v>
-      </c>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
       <c r="O19" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
-      <c r="P19" s="32">
-        <v>6</v>
-      </c>
+      <c r="P19" s="32"/>
       <c r="Q19" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Z19" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="AA19" s="46">
+        <v>94</v>
+      </c>
+      <c r="AA19" s="46"/>
+      <c r="AB19" s="44" t="s">
         <v>117</v>
-      </c>
-      <c r="AB19" s="44" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="20" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>87</v>
-      </c>
+      <c r="G20" s="2"/>
       <c r="J20" s="22" t="s">
         <v>61</v>
       </c>
@@ -3176,43 +2984,35 @@
         <v>31</v>
       </c>
       <c r="L20" s="2"/>
-      <c r="M20" s="3">
-        <v>43972.486805555556</v>
-      </c>
-      <c r="N20" s="3">
-        <v>43972.486805555556</v>
-      </c>
+      <c r="M20" s="3"/>
+      <c r="N20" s="3"/>
       <c r="O20" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
         <v>0</v>
       </c>
       <c r="P20" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Z20" s="41" t="s">
-        <v>104</v>
-      </c>
-      <c r="AA20" s="46">
-        <v>124</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="AA20" s="46"/>
       <c r="AB20" s="44" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F21" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>88</v>
-      </c>
+      <c r="G21" s="2"/>
       <c r="J21" s="22" t="s">
         <v>61</v>
       </c>
@@ -3220,43 +3020,35 @@
         <v>32</v>
       </c>
       <c r="L21" s="2"/>
-      <c r="M21" s="3">
-        <v>43972.486805555556</v>
-      </c>
-      <c r="N21" s="3">
-        <v>43972.520138888889</v>
-      </c>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
       <c r="O21" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>3.3333333332848269E-2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q21" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Z21" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA21" s="45">
-        <v>124</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="AA21" s="45"/>
       <c r="AB21" s="43" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
     </row>
     <row r="22" spans="2:30" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>89</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="J22" s="22" t="s">
         <v>61</v>
       </c>
@@ -3264,21 +3056,17 @@
         <v>34</v>
       </c>
       <c r="L22" s="2"/>
-      <c r="M22" s="3">
-        <v>43972.520833333336</v>
-      </c>
-      <c r="N22" s="3">
-        <v>43972.532638888886</v>
-      </c>
+      <c r="M22" s="3"/>
+      <c r="N22" s="3"/>
       <c r="O22" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>1.1805555550381541E-2</v>
+        <v>0</v>
       </c>
       <c r="P22" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q22" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R22" s="2"/>
       <c r="V22" s="2"/>
@@ -3290,9 +3078,7 @@
       <c r="F23" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>90</v>
-      </c>
+      <c r="G23" s="2"/>
       <c r="J23" s="22" t="s">
         <v>61</v>
       </c>
@@ -3300,21 +3086,17 @@
         <v>33</v>
       </c>
       <c r="L23" s="2"/>
-      <c r="M23" s="3">
-        <v>43972.556944444441</v>
-      </c>
-      <c r="N23" s="3">
-        <v>43972.55972222222</v>
-      </c>
+      <c r="M23" s="3"/>
+      <c r="N23" s="3"/>
       <c r="O23" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>2.7777777795563452E-3</v>
+        <v>0</v>
       </c>
       <c r="P23" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q23" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R23" s="2"/>
       <c r="V23" s="2"/>
@@ -3326,31 +3108,23 @@
       <c r="F24" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="G24" s="2"/>
       <c r="J24" s="22" t="s">
         <v>63</v>
       </c>
       <c r="K24" s="2" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L24" s="2"/>
-      <c r="M24" s="3">
-        <v>43972.59375</v>
-      </c>
-      <c r="N24" s="3">
-        <v>43972.626388888886</v>
-      </c>
+      <c r="M24" s="3"/>
+      <c r="N24" s="3"/>
       <c r="O24" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>3.2638888886140194E-2</v>
-      </c>
-      <c r="P24" s="32">
-        <v>5064</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="P24" s="32"/>
       <c r="Q24" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R24" s="2"/>
       <c r="V24" s="2"/>
@@ -3363,24 +3137,20 @@
         <v>44</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J25" s="22" t="s">
         <v>65</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="L25" s="2"/>
-      <c r="M25" s="3">
-        <v>43976.537499999999</v>
-      </c>
-      <c r="N25" s="3">
-        <v>43976.93472222222</v>
-      </c>
+      <c r="M25" s="3"/>
+      <c r="N25" s="3"/>
       <c r="O25" s="17">
         <f>Sourcerer[[#This Row],[Finish]]-Sourcerer[[#This Row],[Start]]</f>
-        <v>0.39722222222189885</v>
+        <v>0</v>
       </c>
       <c r="P25" s="32"/>
       <c r="Q25" s="32"/>
@@ -3394,25 +3164,25 @@
         <v>45</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="I26" s="7"/>
       <c r="J26" s="22"/>
       <c r="K26" s="29" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L26" s="30"/>
       <c r="M26" s="30"/>
       <c r="N26" s="30"/>
       <c r="O26" s="31">
         <f>SUBTOTAL(109,O13:O25)</f>
-        <v>0.48333333332993789</v>
+        <v>0</v>
       </c>
       <c r="P26" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="Q26" s="32" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="R26" s="28"/>
       <c r="T26" s="5"/>
@@ -3708,12 +3478,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B17:B19 B1:B2 K1:K2 V1:V2 B4:B12">
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="49" priority="3">
       <formula>$C1="ok"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K29:M42 H27:H39 I26:I38 J28:K40">
-    <cfRule type="expression" dxfId="0" priority="5">
+    <cfRule type="expression" dxfId="48" priority="5">
       <formula>#REF!="ok"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3755,7 +3525,7 @@
       </c>
       <c r="B1" t="str">
         <f>Notas!D14</f>
-        <v>F:\sourcerer_portable</v>
+        <v>R:\sourcerer_portable</v>
       </c>
       <c r="C1" t="str">
         <f>"assertTrue(RepoNotes.getProperties().containsKey(""" &amp; A1 &amp; """));"</f>
@@ -3764,11 +3534,11 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="str">
+        <v>72</v>
+      </c>
+      <c r="B2">
         <f>Notas!D15</f>
-        <v>genie_search_api_test</v>
+        <v>0</v>
       </c>
       <c r="C2" t="str">
         <f t="shared" ref="C2:C30" si="0">"assertTrue(RepoNotes.getProperties().containsKey(""" &amp; A2 &amp; """));"</f>
@@ -3777,11 +3547,11 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" t="str">
         <f>Notas!D16</f>
-        <v>F:\sourcerer_portable\repositories\genie_search_api_test</v>
+        <v>R:\sourcerer_portable\repositories\</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
@@ -3794,7 +3564,7 @@
       </c>
       <c r="B4">
         <f>Notas!E8</f>
-        <v>335032</v>
+        <v>0</v>
       </c>
       <c r="C4" t="str">
         <f t="shared" si="0"/>
@@ -3803,11 +3573,11 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="B5">
         <f>Notas!P4</f>
-        <v>1826</v>
+        <v>0</v>
       </c>
       <c r="C5" t="str">
         <f t="shared" si="0"/>
@@ -3816,11 +3586,11 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="B6">
         <f>Notas!Q4</f>
-        <v>299</v>
+        <v>0</v>
       </c>
       <c r="C6" t="str">
         <f t="shared" si="0"/>
@@ -3829,11 +3599,11 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="B7">
         <f>Notas!P8</f>
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="C7" t="str">
         <f t="shared" si="0"/>
@@ -3842,11 +3612,11 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="B8">
         <f>Folders[[#This Row],[Folders]]</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C8" t="str">
         <f t="shared" si="0"/>
@@ -3859,7 +3629,7 @@
       </c>
       <c r="B9">
         <f>Notas!W4</f>
-        <v>252504</v>
+        <v>0</v>
       </c>
       <c r="C9" t="str">
         <f t="shared" si="0"/>
@@ -3872,7 +3642,7 @@
       </c>
       <c r="B10">
         <f>Notas!W5</f>
-        <v>1093930</v>
+        <v>0</v>
       </c>
       <c r="C10" t="str">
         <f t="shared" si="0"/>
@@ -3885,7 +3655,7 @@
       </c>
       <c r="B11">
         <f>Notas!W6</f>
-        <v>2444000</v>
+        <v>0</v>
       </c>
       <c r="C11" t="str">
         <f t="shared" si="0"/>
@@ -3898,7 +3668,7 @@
       </c>
       <c r="B12">
         <f>Notas!W7</f>
-        <v>80336</v>
+        <v>0</v>
       </c>
       <c r="C12" t="str">
         <f t="shared" si="0"/>
@@ -3911,7 +3681,7 @@
       </c>
       <c r="B13">
         <f>Notas!W8</f>
-        <v>26305</v>
+        <v>0</v>
       </c>
       <c r="C13" t="str">
         <f t="shared" si="0"/>
@@ -3924,7 +3694,7 @@
       </c>
       <c r="B14">
         <f>Notas!W9</f>
-        <v>55999</v>
+        <v>0</v>
       </c>
       <c r="C14" t="str">
         <f t="shared" si="0"/>
@@ -3937,7 +3707,7 @@
       </c>
       <c r="B15">
         <f>Notas!W10</f>
-        <v>24278</v>
+        <v>0</v>
       </c>
       <c r="C15" t="str">
         <f t="shared" si="0"/>
@@ -3950,7 +3720,7 @@
       </c>
       <c r="B16">
         <f>Notas!W11</f>
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="C16" t="str">
         <f t="shared" si="0"/>
@@ -3963,7 +3733,7 @@
       </c>
       <c r="B17">
         <f>Notas!W12</f>
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="C17" t="str">
         <f t="shared" si="0"/>
@@ -3976,7 +3746,7 @@
       </c>
       <c r="B18">
         <f>Notas!W13</f>
-        <v>5819181</v>
+        <v>0</v>
       </c>
       <c r="C18" t="str">
         <f t="shared" si="0"/>
@@ -3985,11 +3755,11 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B19">
         <f>Notas!AA4</f>
-        <v>289161</v>
+        <v>0</v>
       </c>
       <c r="C19" t="str">
         <f t="shared" si="0"/>
@@ -3998,11 +3768,11 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B20">
         <f>Notas!AA5</f>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C20" t="str">
         <f t="shared" si="0"/>
@@ -4011,7 +3781,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B21">
         <f>Notas!AA6</f>
@@ -4024,11 +3794,11 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B22">
         <f>Notas!AA7</f>
-        <v>1352162</v>
+        <v>0</v>
       </c>
       <c r="C22" t="str">
         <f t="shared" si="0"/>
@@ -4037,7 +3807,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B23">
         <f>Notas!AA8</f>
@@ -4050,7 +3820,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <f>Notas!AA9</f>
@@ -4063,11 +3833,11 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="B25">
         <f>Notas!AA10</f>
-        <v>343059</v>
+        <v>0</v>
       </c>
       <c r="C25" t="str">
         <f t="shared" si="0"/>
@@ -4076,11 +3846,11 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="B26">
         <f>Notas!AA11</f>
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="str">
         <f t="shared" si="0"/>
@@ -4089,11 +3859,11 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B27">
         <f>Notas!AA12</f>
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="C27" t="str">
         <f t="shared" si="0"/>
@@ -4102,11 +3872,11 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B28">
         <f>Notas!AA18</f>
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C28" t="str">
         <f t="shared" si="0"/>
@@ -4115,11 +3885,11 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B29">
         <f>Notas!AA19</f>
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="C29" t="str">
         <f t="shared" si="0"/>
@@ -4128,11 +3898,11 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B30">
         <f>Notas!AA20</f>
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="C30" t="str">
         <f t="shared" si="0"/>
